--- a/Financials/Quarterly/WBK_QTR_FIN.xlsx
+++ b/Financials/Quarterly/WBK_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D446C42-9A81-4170-9D15-6791B2D727BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBK" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>WBK</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11674900</v>
+        <v>11660300</v>
       </c>
       <c r="E8" s="3">
-        <v>11492800</v>
+        <v>11383700</v>
       </c>
       <c r="F8" s="3">
-        <v>11169200</v>
+        <v>11206100</v>
       </c>
       <c r="G8" s="3">
-        <v>11480400</v>
+        <v>10890500</v>
       </c>
       <c r="H8" s="3">
-        <v>11609600</v>
+        <v>11194100</v>
       </c>
       <c r="I8" s="3">
-        <v>11438400</v>
+        <v>11320000</v>
       </c>
       <c r="J8" s="3">
+        <v>11153000</v>
+      </c>
+      <c r="K8" s="3">
         <v>11994900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11888200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +806,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +948,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-397600</v>
+        <v>-420300</v>
       </c>
       <c r="E15" s="3">
-        <v>-457100</v>
+        <v>-387700</v>
       </c>
       <c r="F15" s="3">
-        <v>-453500</v>
+        <v>-445700</v>
       </c>
       <c r="G15" s="3">
-        <v>-468000</v>
+        <v>-442200</v>
       </c>
       <c r="H15" s="3">
-        <v>-423000</v>
+        <v>-456300</v>
       </c>
       <c r="I15" s="3">
-        <v>-817000</v>
+        <v>-412500</v>
       </c>
       <c r="J15" s="3">
+        <v>-796600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-395500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-403400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5953500</v>
+        <v>6064000</v>
       </c>
       <c r="E17" s="3">
-        <v>6019600</v>
+        <v>5805000</v>
       </c>
       <c r="F17" s="3">
-        <v>6002900</v>
+        <v>5869400</v>
       </c>
       <c r="G17" s="3">
-        <v>6246000</v>
+        <v>5853100</v>
       </c>
       <c r="H17" s="3">
-        <v>6668300</v>
+        <v>6090200</v>
       </c>
       <c r="I17" s="3">
-        <v>6452800</v>
+        <v>6501900</v>
       </c>
       <c r="J17" s="3">
+        <v>6291800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7174700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7103600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5721400</v>
+        <v>5596300</v>
       </c>
       <c r="E18" s="3">
-        <v>5473200</v>
+        <v>5578600</v>
       </c>
       <c r="F18" s="3">
-        <v>5166300</v>
+        <v>5336700</v>
       </c>
       <c r="G18" s="3">
-        <v>5234500</v>
+        <v>5037400</v>
       </c>
       <c r="H18" s="3">
-        <v>4941300</v>
+        <v>5103900</v>
       </c>
       <c r="I18" s="3">
-        <v>4985600</v>
+        <v>4818100</v>
       </c>
       <c r="J18" s="3">
+        <v>4861200</v>
+      </c>
+      <c r="K18" s="3">
         <v>4820200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4784600</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1071,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1342400</v>
+        <v>-1566400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1212500</v>
+        <v>-1308900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1071700</v>
+        <v>-1182200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1311900</v>
+        <v>-1045000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1140600</v>
+        <v>-1279200</v>
       </c>
       <c r="I20" s="3">
-        <v>-508600</v>
+        <v>-1112200</v>
       </c>
       <c r="J20" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1013700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-804000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4778100</v>
+        <v>4450200</v>
       </c>
       <c r="E21" s="3">
-        <v>4728700</v>
+        <v>4658900</v>
       </c>
       <c r="F21" s="3">
-        <v>4547300</v>
+        <v>4610800</v>
       </c>
       <c r="G21" s="3">
-        <v>4376100</v>
+        <v>4433900</v>
       </c>
       <c r="H21" s="3">
-        <v>4223700</v>
+        <v>4266900</v>
       </c>
       <c r="I21" s="3">
-        <v>5294000</v>
+        <v>4118400</v>
       </c>
       <c r="J21" s="3">
+        <v>5161900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4201900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4384100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1165,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4379000</v>
+        <v>4029900</v>
       </c>
       <c r="E23" s="3">
-        <v>4260700</v>
+        <v>4269800</v>
       </c>
       <c r="F23" s="3">
-        <v>4094600</v>
+        <v>4154400</v>
       </c>
       <c r="G23" s="3">
-        <v>3922600</v>
+        <v>3992400</v>
       </c>
       <c r="H23" s="3">
-        <v>3800700</v>
+        <v>3824700</v>
       </c>
       <c r="I23" s="3">
-        <v>4477000</v>
+        <v>3705900</v>
       </c>
       <c r="J23" s="3">
+        <v>4365300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3806500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3980600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1331500</v>
+        <v>1271400</v>
       </c>
       <c r="E24" s="3">
-        <v>1296600</v>
+        <v>1298300</v>
       </c>
       <c r="F24" s="3">
-        <v>1256000</v>
+        <v>1264300</v>
       </c>
       <c r="G24" s="3">
-        <v>1201600</v>
+        <v>1224700</v>
       </c>
       <c r="H24" s="3">
-        <v>1108700</v>
+        <v>1171600</v>
       </c>
       <c r="I24" s="3">
-        <v>1265400</v>
+        <v>1081100</v>
       </c>
       <c r="J24" s="3">
+        <v>1233900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1163900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1102900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3047500</v>
+        <v>2758500</v>
       </c>
       <c r="E26" s="3">
-        <v>2964100</v>
+        <v>2971500</v>
       </c>
       <c r="F26" s="3">
-        <v>2838500</v>
+        <v>2890100</v>
       </c>
       <c r="G26" s="3">
-        <v>2721000</v>
+        <v>2767700</v>
       </c>
       <c r="H26" s="3">
-        <v>2692000</v>
+        <v>2653100</v>
       </c>
       <c r="I26" s="3">
-        <v>3211500</v>
+        <v>2624800</v>
       </c>
       <c r="J26" s="3">
+        <v>3131400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2642600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2877700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3044600</v>
+        <v>2755000</v>
       </c>
       <c r="E27" s="3">
-        <v>2959000</v>
+        <v>2968700</v>
       </c>
       <c r="F27" s="3">
-        <v>2834200</v>
+        <v>2885200</v>
       </c>
       <c r="G27" s="3">
-        <v>2714500</v>
+        <v>2763500</v>
       </c>
       <c r="H27" s="3">
-        <v>2684000</v>
+        <v>2646800</v>
       </c>
       <c r="I27" s="3">
-        <v>3191900</v>
+        <v>2617000</v>
       </c>
       <c r="J27" s="3">
+        <v>3112300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2617200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1357,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1389,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1342400</v>
+        <v>1566400</v>
       </c>
       <c r="E32" s="3">
-        <v>1212500</v>
+        <v>1308900</v>
       </c>
       <c r="F32" s="3">
-        <v>1071700</v>
+        <v>1182200</v>
       </c>
       <c r="G32" s="3">
-        <v>1311900</v>
+        <v>1045000</v>
       </c>
       <c r="H32" s="3">
-        <v>1140600</v>
+        <v>1279200</v>
       </c>
       <c r="I32" s="3">
-        <v>508600</v>
+        <v>1112200</v>
       </c>
       <c r="J32" s="3">
+        <v>496000</v>
+      </c>
+      <c r="K32" s="3">
         <v>1013700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3044600</v>
+        <v>2755000</v>
       </c>
       <c r="E33" s="3">
-        <v>2959000</v>
+        <v>2968700</v>
       </c>
       <c r="F33" s="3">
-        <v>2834200</v>
+        <v>2885200</v>
       </c>
       <c r="G33" s="3">
-        <v>2714500</v>
+        <v>2763500</v>
       </c>
       <c r="H33" s="3">
-        <v>2684000</v>
+        <v>2646800</v>
       </c>
       <c r="I33" s="3">
-        <v>3191900</v>
+        <v>2617000</v>
       </c>
       <c r="J33" s="3">
+        <v>3112300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2617200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3044600</v>
+        <v>2755000</v>
       </c>
       <c r="E35" s="3">
-        <v>2959000</v>
+        <v>2968700</v>
       </c>
       <c r="F35" s="3">
-        <v>2834200</v>
+        <v>2885200</v>
       </c>
       <c r="G35" s="3">
-        <v>2714500</v>
+        <v>2763500</v>
       </c>
       <c r="H35" s="3">
-        <v>2684000</v>
+        <v>2646800</v>
       </c>
       <c r="I35" s="3">
-        <v>3191900</v>
+        <v>2617000</v>
       </c>
       <c r="J35" s="3">
+        <v>3112300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2617200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1648,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18544200</v>
+        <v>22796400</v>
       </c>
       <c r="E41" s="3">
-        <v>18520900</v>
+        <v>18081600</v>
       </c>
       <c r="F41" s="3">
-        <v>18471600</v>
+        <v>18058900</v>
       </c>
       <c r="G41" s="3">
-        <v>19566500</v>
+        <v>18010800</v>
       </c>
       <c r="H41" s="3">
-        <v>23447000</v>
+        <v>19078400</v>
       </c>
       <c r="I41" s="3">
-        <v>17670500</v>
+        <v>22862200</v>
       </c>
       <c r="J41" s="3">
+        <v>17229700</v>
+      </c>
+      <c r="K41" s="3">
         <v>23299000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26808700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35444800</v>
+        <v>33669900</v>
       </c>
       <c r="E42" s="3">
-        <v>36573900</v>
+        <v>34560700</v>
       </c>
       <c r="F42" s="3">
-        <v>41362800</v>
+        <v>35661500</v>
       </c>
       <c r="G42" s="3">
-        <v>39752000</v>
+        <v>40331000</v>
       </c>
       <c r="H42" s="3">
-        <v>50014900</v>
+        <v>38760400</v>
       </c>
       <c r="I42" s="3">
-        <v>55824800</v>
+        <v>48767300</v>
       </c>
       <c r="J42" s="3">
+        <v>54432200</v>
+      </c>
+      <c r="K42" s="3">
         <v>63186000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65497700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1742,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1774,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1806,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1838,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>58000</v>
+        <v>81400</v>
       </c>
       <c r="E47" s="3">
-        <v>43500</v>
+        <v>56600</v>
       </c>
       <c r="F47" s="3">
-        <v>519500</v>
+        <v>42500</v>
       </c>
       <c r="G47" s="3">
-        <v>526800</v>
+        <v>506600</v>
       </c>
       <c r="H47" s="3">
-        <v>538400</v>
+        <v>513600</v>
       </c>
       <c r="I47" s="3">
-        <v>548600</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
+        <v>525000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>534900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>963600</v>
+        <v>940300</v>
       </c>
       <c r="E48" s="3">
-        <v>1079000</v>
+        <v>939600</v>
       </c>
       <c r="F48" s="3">
-        <v>1142100</v>
+        <v>1052100</v>
       </c>
       <c r="G48" s="3">
-        <v>1260400</v>
+        <v>1113600</v>
       </c>
       <c r="H48" s="3">
-        <v>1181300</v>
+        <v>1228900</v>
       </c>
       <c r="I48" s="3">
-        <v>1155200</v>
+        <v>1151800</v>
       </c>
       <c r="J48" s="3">
+        <v>1126300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1116700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1053600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8484400</v>
+        <v>8322300</v>
       </c>
       <c r="E49" s="3">
-        <v>8454700</v>
+        <v>8272800</v>
       </c>
       <c r="F49" s="3">
-        <v>8299400</v>
+        <v>8243800</v>
       </c>
       <c r="G49" s="3">
-        <v>8358900</v>
+        <v>8092400</v>
       </c>
       <c r="H49" s="3">
-        <v>8319000</v>
+        <v>8150400</v>
       </c>
       <c r="I49" s="3">
-        <v>8398100</v>
+        <v>8111500</v>
       </c>
       <c r="J49" s="3">
+        <v>8188600</v>
+      </c>
+      <c r="K49" s="3">
         <v>9136800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9146900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>812700</v>
+        <v>834900</v>
       </c>
       <c r="E52" s="3">
-        <v>806900</v>
+        <v>792400</v>
       </c>
       <c r="F52" s="3">
-        <v>861300</v>
+        <v>786700</v>
       </c>
       <c r="G52" s="3">
-        <v>1126100</v>
+        <v>839800</v>
       </c>
       <c r="H52" s="3">
-        <v>1096400</v>
+        <v>1098000</v>
       </c>
       <c r="I52" s="3">
-        <v>999200</v>
+        <v>1069000</v>
       </c>
       <c r="J52" s="3">
+        <v>974200</v>
+      </c>
+      <c r="K52" s="3">
         <v>992600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1013700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>632618000</v>
+        <v>622311300</v>
       </c>
       <c r="E54" s="3">
-        <v>618120500</v>
+        <v>616837400</v>
       </c>
       <c r="F54" s="3">
-        <v>609498900</v>
+        <v>602701600</v>
       </c>
       <c r="G54" s="3">
-        <v>608925000</v>
+        <v>594295000</v>
       </c>
       <c r="H54" s="3">
-        <v>603525100</v>
+        <v>593735400</v>
       </c>
       <c r="I54" s="3">
-        <v>589300400</v>
+        <v>588470200</v>
       </c>
       <c r="J54" s="3">
+        <v>574600400</v>
+      </c>
+      <c r="K54" s="3">
         <v>577549300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559323000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,8 +2124,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,66 +2154,75 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4056100</v>
+        <v>3040100</v>
       </c>
       <c r="E58" s="3">
-        <v>2943000</v>
+        <v>3954900</v>
       </c>
       <c r="F58" s="3">
-        <v>3551100</v>
+        <v>2869600</v>
       </c>
       <c r="G58" s="3">
-        <v>3448100</v>
+        <v>3462500</v>
       </c>
       <c r="H58" s="3">
-        <v>5204000</v>
+        <v>3362000</v>
       </c>
       <c r="I58" s="3">
-        <v>6694400</v>
+        <v>5074200</v>
       </c>
       <c r="J58" s="3">
+        <v>6527400</v>
+      </c>
+      <c r="K58" s="3">
         <v>8803700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13957600</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217000</v>
+        <v>209400</v>
       </c>
       <c r="E59" s="3">
-        <v>223500</v>
+        <v>211500</v>
       </c>
       <c r="F59" s="3">
-        <v>104500</v>
+        <v>217900</v>
       </c>
       <c r="G59" s="3">
-        <v>279400</v>
+        <v>101900</v>
       </c>
       <c r="H59" s="3">
-        <v>170500</v>
+        <v>272400</v>
       </c>
       <c r="I59" s="3">
-        <v>391100</v>
+        <v>166300</v>
       </c>
       <c r="J59" s="3">
+        <v>381300</v>
+      </c>
+      <c r="K59" s="3">
         <v>251800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>480300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2250,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>139657000</v>
+        <v>134326700</v>
       </c>
       <c r="E61" s="3">
-        <v>134977600</v>
+        <v>136173200</v>
       </c>
       <c r="F61" s="3">
-        <v>133809300</v>
+        <v>131610600</v>
       </c>
       <c r="G61" s="3">
-        <v>134749000</v>
+        <v>130471500</v>
       </c>
       <c r="H61" s="3">
-        <v>129216300</v>
+        <v>131387700</v>
       </c>
       <c r="I61" s="3">
-        <v>134159100</v>
+        <v>125993000</v>
       </c>
       <c r="J61" s="3">
+        <v>130812500</v>
+      </c>
+      <c r="K61" s="3">
         <v>130648600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>118351900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>915700</v>
+        <v>1376800</v>
       </c>
       <c r="E62" s="3">
-        <v>1068100</v>
+        <v>892900</v>
       </c>
       <c r="F62" s="3">
-        <v>873600</v>
+        <v>1166700</v>
       </c>
       <c r="G62" s="3">
-        <v>1056500</v>
+        <v>851800</v>
       </c>
       <c r="H62" s="3">
-        <v>903400</v>
+        <v>1030100</v>
       </c>
       <c r="I62" s="3">
-        <v>1120300</v>
+        <v>880800</v>
       </c>
       <c r="J62" s="3">
+        <v>1092400</v>
+      </c>
+      <c r="K62" s="3">
         <v>995500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1213900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>587184500</v>
+        <v>576662700</v>
       </c>
       <c r="E66" s="3">
-        <v>573649900</v>
+        <v>572537300</v>
       </c>
       <c r="F66" s="3">
-        <v>566460000</v>
+        <v>559340300</v>
       </c>
       <c r="G66" s="3">
-        <v>566753100</v>
+        <v>552329700</v>
       </c>
       <c r="H66" s="3">
-        <v>562041800</v>
+        <v>552615500</v>
       </c>
       <c r="I66" s="3">
-        <v>550772500</v>
+        <v>548021700</v>
       </c>
       <c r="J66" s="3">
+        <v>537033500</v>
+      </c>
+      <c r="K66" s="3">
         <v>541701000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524163300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2552,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20755800</v>
+        <v>20799800</v>
       </c>
       <c r="E72" s="3">
-        <v>19963400</v>
+        <v>20238000</v>
       </c>
       <c r="F72" s="3">
-        <v>19290800</v>
+        <v>19465400</v>
       </c>
       <c r="G72" s="3">
-        <v>18642800</v>
+        <v>18809600</v>
       </c>
       <c r="H72" s="3">
-        <v>18158900</v>
+        <v>18177800</v>
       </c>
       <c r="I72" s="3">
-        <v>17684300</v>
+        <v>17705900</v>
       </c>
       <c r="J72" s="3">
+        <v>17243200</v>
+      </c>
+      <c r="K72" s="3">
         <v>16268000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15757100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45433400</v>
+        <v>45648600</v>
       </c>
       <c r="E76" s="3">
-        <v>44470600</v>
+        <v>44300100</v>
       </c>
       <c r="F76" s="3">
-        <v>43039000</v>
+        <v>43361300</v>
       </c>
       <c r="G76" s="3">
-        <v>42171900</v>
+        <v>41965400</v>
       </c>
       <c r="H76" s="3">
-        <v>41483300</v>
+        <v>41119900</v>
       </c>
       <c r="I76" s="3">
-        <v>38527900</v>
+        <v>40448500</v>
       </c>
       <c r="J76" s="3">
+        <v>37566800</v>
+      </c>
+      <c r="K76" s="3">
         <v>35848300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35159700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3044600</v>
+        <v>2755000</v>
       </c>
       <c r="E81" s="3">
-        <v>2959000</v>
+        <v>2968700</v>
       </c>
       <c r="F81" s="3">
-        <v>2834200</v>
+        <v>2885200</v>
       </c>
       <c r="G81" s="3">
-        <v>2714500</v>
+        <v>2763500</v>
       </c>
       <c r="H81" s="3">
-        <v>2684000</v>
+        <v>2646800</v>
       </c>
       <c r="I81" s="3">
-        <v>3191900</v>
+        <v>2617000</v>
       </c>
       <c r="J81" s="3">
+        <v>3112300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2617200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2861,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399100</v>
+        <v>420300</v>
       </c>
       <c r="E83" s="3">
-        <v>468000</v>
+        <v>389100</v>
       </c>
       <c r="F83" s="3">
-        <v>452800</v>
+        <v>456300</v>
       </c>
       <c r="G83" s="3">
-        <v>453500</v>
+        <v>441500</v>
       </c>
       <c r="H83" s="3">
-        <v>423000</v>
+        <v>442200</v>
       </c>
       <c r="I83" s="3">
-        <v>817000</v>
+        <v>412500</v>
       </c>
       <c r="J83" s="3">
+        <v>796600</v>
+      </c>
+      <c r="K83" s="3">
         <v>395500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5581300</v>
+        <v>8567800</v>
       </c>
       <c r="E89" s="3">
-        <v>2538100</v>
+        <v>5442100</v>
       </c>
       <c r="F89" s="3">
-        <v>-492000</v>
+        <v>2474800</v>
       </c>
       <c r="G89" s="3">
-        <v>355500</v>
+        <v>-479700</v>
       </c>
       <c r="H89" s="3">
-        <v>3633100</v>
+        <v>346700</v>
       </c>
       <c r="I89" s="3">
-        <v>7235700</v>
+        <v>3542500</v>
       </c>
       <c r="J89" s="3">
+        <v>7055200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7628200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10450100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3099,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-351200</v>
+        <v>-152100</v>
       </c>
       <c r="E91" s="3">
-        <v>-424500</v>
+        <v>-67200</v>
       </c>
       <c r="F91" s="3">
-        <v>-322900</v>
+        <v>-115300</v>
       </c>
       <c r="G91" s="3">
-        <v>-544200</v>
+        <v>-71500</v>
       </c>
       <c r="H91" s="3">
-        <v>-346800</v>
+        <v>-222200</v>
       </c>
       <c r="I91" s="3">
-        <v>-559400</v>
+        <v>-146500</v>
       </c>
       <c r="J91" s="3">
+        <v>-294300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-388900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-481800</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3268800</v>
+        <v>2041100</v>
       </c>
       <c r="E94" s="3">
-        <v>-650100</v>
+        <v>-3187300</v>
       </c>
       <c r="F94" s="3">
-        <v>-581900</v>
+        <v>-633900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3926200</v>
+        <v>-567400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1330800</v>
+        <v>-3828300</v>
       </c>
       <c r="I94" s="3">
-        <v>-8189800</v>
+        <v>-1297600</v>
       </c>
       <c r="J94" s="3">
+        <v>-7985600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5389800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2257300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2087600</v>
+        <v>-2046100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1469300</v>
+        <v>-2035500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2041800</v>
+        <v>-1432700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2041800</v>
+        <v>-1990900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1877900</v>
+        <v>-1990900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1341600</v>
+        <v>-1831000</v>
       </c>
       <c r="J96" s="3">
+        <v>-1308200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1807500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2027300</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193700</v>
+        <v>-7658700</v>
       </c>
       <c r="E100" s="3">
-        <v>55900</v>
+        <v>-188900</v>
       </c>
       <c r="F100" s="3">
-        <v>344700</v>
+        <v>54500</v>
       </c>
       <c r="G100" s="3">
-        <v>2153600</v>
+        <v>336100</v>
       </c>
       <c r="H100" s="3">
-        <v>1164600</v>
+        <v>2099900</v>
       </c>
       <c r="I100" s="3">
-        <v>177000</v>
+        <v>1135500</v>
       </c>
       <c r="J100" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K100" s="3">
         <v>3823200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1991000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>190800</v>
+        <v>481800</v>
       </c>
       <c r="E101" s="3">
-        <v>-140800</v>
+        <v>186100</v>
       </c>
       <c r="F101" s="3">
-        <v>-71100</v>
+        <v>-137300</v>
       </c>
       <c r="G101" s="3">
-        <v>113900</v>
+        <v>-69300</v>
       </c>
       <c r="H101" s="3">
-        <v>-534800</v>
+        <v>111100</v>
       </c>
       <c r="I101" s="3">
-        <v>800300</v>
+        <v>-521400</v>
       </c>
       <c r="J101" s="3">
+        <v>780400</v>
+      </c>
+      <c r="K101" s="3">
         <v>1197200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>608100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2309600</v>
+        <v>3432100</v>
       </c>
       <c r="E102" s="3">
-        <v>1803100</v>
+        <v>2252000</v>
       </c>
       <c r="F102" s="3">
-        <v>-800300</v>
+        <v>1758100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1303200</v>
+        <v>-780400</v>
       </c>
       <c r="H102" s="3">
-        <v>2932100</v>
+        <v>-1270700</v>
       </c>
       <c r="I102" s="3">
-        <v>23200</v>
+        <v>2859000</v>
       </c>
       <c r="J102" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7997600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6809800</v>
       </c>
     </row>

--- a/Financials/Quarterly/WBK_QTR_FIN.xlsx
+++ b/Financials/Quarterly/WBK_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D446C42-9A81-4170-9D15-6791B2D727BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="WBK" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>WBK</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,96 +654,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11660300</v>
+        <v>10938900</v>
       </c>
       <c r="E8" s="3">
-        <v>11383700</v>
+        <v>11419500</v>
       </c>
       <c r="F8" s="3">
-        <v>11206100</v>
+        <v>11091700</v>
       </c>
       <c r="G8" s="3">
-        <v>10890500</v>
+        <v>10828600</v>
       </c>
       <c r="H8" s="3">
-        <v>11194100</v>
+        <v>10659600</v>
       </c>
       <c r="I8" s="3">
+        <v>10359500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10648200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11320000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>11153000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11994900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11888200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +786,14 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +824,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +844,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +878,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,8 +916,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,40 +954,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-420300</v>
+        <v>-372800</v>
       </c>
       <c r="E15" s="3">
-        <v>-387700</v>
+        <v>-336500</v>
       </c>
       <c r="F15" s="3">
-        <v>-445700</v>
+        <v>-399800</v>
       </c>
       <c r="G15" s="3">
-        <v>-442200</v>
+        <v>-368800</v>
       </c>
       <c r="H15" s="3">
-        <v>-456300</v>
+        <v>-640700</v>
       </c>
       <c r="I15" s="3">
+        <v>-420600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-434100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-412500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-796600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-395500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-403400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +1009,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6064000</v>
+        <v>5431800</v>
       </c>
       <c r="E17" s="3">
-        <v>5805000</v>
+        <v>6082600</v>
       </c>
       <c r="F17" s="3">
-        <v>5869400</v>
+        <v>5768300</v>
       </c>
       <c r="G17" s="3">
-        <v>5853100</v>
+        <v>5522000</v>
       </c>
       <c r="H17" s="3">
-        <v>6090200</v>
+        <v>5583200</v>
       </c>
       <c r="I17" s="3">
+        <v>5567700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5793200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6501900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6291800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7174700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7103600</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5596300</v>
+        <v>5507200</v>
       </c>
       <c r="E18" s="3">
-        <v>5578600</v>
+        <v>5336900</v>
       </c>
       <c r="F18" s="3">
-        <v>5336700</v>
+        <v>5323400</v>
       </c>
       <c r="G18" s="3">
-        <v>5037400</v>
+        <v>5306600</v>
       </c>
       <c r="H18" s="3">
-        <v>5103900</v>
+        <v>5076400</v>
       </c>
       <c r="I18" s="3">
+        <v>4791800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4855000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4818100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4861200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4820200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4784600</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,72 +1101,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1566400</v>
+        <v>-2011600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1308900</v>
+        <v>-2271400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1182200</v>
+        <v>-1490000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1045000</v>
+        <v>-1245100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1279200</v>
+        <v>-1124600</v>
       </c>
       <c r="I20" s="3">
+        <v>-994000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1216800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1112200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-496000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1013700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-804000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4450200</v>
+        <v>3874500</v>
       </c>
       <c r="E21" s="3">
-        <v>4658900</v>
+        <v>3412800</v>
       </c>
       <c r="F21" s="3">
-        <v>4610800</v>
+        <v>4233200</v>
       </c>
       <c r="G21" s="3">
-        <v>4433900</v>
+        <v>4431700</v>
       </c>
       <c r="H21" s="3">
-        <v>4266900</v>
+        <v>4385900</v>
       </c>
       <c r="I21" s="3">
+        <v>4217700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4058900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4118400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5161900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4201900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4384100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1168,72 +1211,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4029900</v>
+        <v>3495600</v>
       </c>
       <c r="E23" s="3">
-        <v>4269800</v>
+        <v>3065500</v>
       </c>
       <c r="F23" s="3">
-        <v>4154400</v>
+        <v>3833400</v>
       </c>
       <c r="G23" s="3">
-        <v>3992400</v>
+        <v>4061600</v>
       </c>
       <c r="H23" s="3">
-        <v>3824700</v>
+        <v>3951900</v>
       </c>
       <c r="I23" s="3">
+        <v>3797700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3638200</v>
+      </c>
+      <c r="K23" s="3">
         <v>3705900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4365300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3806500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3980600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1271400</v>
+        <v>1063300</v>
       </c>
       <c r="E24" s="3">
-        <v>1298300</v>
+        <v>928100</v>
       </c>
       <c r="F24" s="3">
-        <v>1264300</v>
+        <v>1209400</v>
       </c>
       <c r="G24" s="3">
-        <v>1224700</v>
+        <v>1235000</v>
       </c>
       <c r="H24" s="3">
-        <v>1171600</v>
+        <v>1202700</v>
       </c>
       <c r="I24" s="3">
+        <v>1165000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1114500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1081100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1233900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1163900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1102900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1325,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2758500</v>
+        <v>2432200</v>
       </c>
       <c r="E26" s="3">
-        <v>2971500</v>
+        <v>2137400</v>
       </c>
       <c r="F26" s="3">
-        <v>2890100</v>
+        <v>2624000</v>
       </c>
       <c r="G26" s="3">
-        <v>2767700</v>
+        <v>2826600</v>
       </c>
       <c r="H26" s="3">
-        <v>2653100</v>
+        <v>2749200</v>
       </c>
       <c r="I26" s="3">
+        <v>2632800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2523800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2624800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3131400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2642600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2877700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2755000</v>
+        <v>2427500</v>
       </c>
       <c r="E27" s="3">
-        <v>2968700</v>
+        <v>2134100</v>
       </c>
       <c r="F27" s="3">
-        <v>2885200</v>
+        <v>2620700</v>
       </c>
       <c r="G27" s="3">
-        <v>2763500</v>
+        <v>2823900</v>
       </c>
       <c r="H27" s="3">
-        <v>2646800</v>
+        <v>2744500</v>
       </c>
       <c r="I27" s="3">
+        <v>2628700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2517700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2617000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3112300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2617200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,8 +1439,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1392,8 +1477,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1515,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1553,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1566400</v>
+        <v>2011600</v>
       </c>
       <c r="E32" s="3">
-        <v>1308900</v>
+        <v>2271400</v>
       </c>
       <c r="F32" s="3">
-        <v>1182200</v>
+        <v>1490000</v>
       </c>
       <c r="G32" s="3">
-        <v>1045000</v>
+        <v>1245100</v>
       </c>
       <c r="H32" s="3">
-        <v>1279200</v>
+        <v>1124600</v>
       </c>
       <c r="I32" s="3">
+        <v>994000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1216800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1112200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>496000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1013700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>804000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2755000</v>
+        <v>2427500</v>
       </c>
       <c r="E33" s="3">
-        <v>2968700</v>
+        <v>2134100</v>
       </c>
       <c r="F33" s="3">
-        <v>2885200</v>
+        <v>2620700</v>
       </c>
       <c r="G33" s="3">
-        <v>2763500</v>
+        <v>2823900</v>
       </c>
       <c r="H33" s="3">
-        <v>2646800</v>
+        <v>2744500</v>
       </c>
       <c r="I33" s="3">
+        <v>2628700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2517700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2617000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3112300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2617200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1667,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2755000</v>
+        <v>2427500</v>
       </c>
       <c r="E35" s="3">
-        <v>2968700</v>
+        <v>2134100</v>
       </c>
       <c r="F35" s="3">
-        <v>2885200</v>
+        <v>2620700</v>
       </c>
       <c r="G35" s="3">
-        <v>2763500</v>
+        <v>2823900</v>
       </c>
       <c r="H35" s="3">
-        <v>2646800</v>
+        <v>2744500</v>
       </c>
       <c r="I35" s="3">
+        <v>2628700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2517700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2617000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3112300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2617200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1768,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,72 +1784,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22796400</v>
+        <v>13499700</v>
       </c>
       <c r="E41" s="3">
-        <v>18081600</v>
+        <v>13114100</v>
       </c>
       <c r="F41" s="3">
-        <v>18058900</v>
+        <v>21684700</v>
       </c>
       <c r="G41" s="3">
-        <v>18010800</v>
+        <v>17199900</v>
       </c>
       <c r="H41" s="3">
-        <v>19078400</v>
+        <v>17178300</v>
       </c>
       <c r="I41" s="3">
+        <v>17132600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>18148100</v>
+      </c>
+      <c r="K41" s="3">
         <v>22862200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17229700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23299000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26808700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33669900</v>
+        <v>49086600</v>
       </c>
       <c r="E42" s="3">
-        <v>34560700</v>
+        <v>42815600</v>
       </c>
       <c r="F42" s="3">
-        <v>35661500</v>
+        <v>32028100</v>
       </c>
       <c r="G42" s="3">
-        <v>40331000</v>
+        <v>32875400</v>
       </c>
       <c r="H42" s="3">
-        <v>38760400</v>
+        <v>33922600</v>
       </c>
       <c r="I42" s="3">
+        <v>38364400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>36870300</v>
+      </c>
+      <c r="K42" s="3">
         <v>48767300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>54432200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>63186000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>65497700</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1745,8 +1894,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,8 +1932,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1970,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1841,104 +2008,128 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81400</v>
+        <v>86800</v>
       </c>
       <c r="E47" s="3">
-        <v>56600</v>
+        <v>77400</v>
       </c>
       <c r="F47" s="3">
-        <v>42500</v>
+        <v>77400</v>
       </c>
       <c r="G47" s="3">
-        <v>506600</v>
+        <v>53800</v>
       </c>
       <c r="H47" s="3">
-        <v>513600</v>
+        <v>40400</v>
       </c>
       <c r="I47" s="3">
+        <v>481900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>488600</v>
+      </c>
+      <c r="K47" s="3">
         <v>525000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>534900</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>940300</v>
+        <v>777300</v>
       </c>
       <c r="E48" s="3">
-        <v>939600</v>
+        <v>807600</v>
       </c>
       <c r="F48" s="3">
-        <v>1052100</v>
+        <v>894400</v>
       </c>
       <c r="G48" s="3">
-        <v>1113600</v>
+        <v>893700</v>
       </c>
       <c r="H48" s="3">
-        <v>1228900</v>
+        <v>1000800</v>
       </c>
       <c r="I48" s="3">
+        <v>1059300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1151800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1126300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1116700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1053600</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8322300</v>
+        <v>8044400</v>
       </c>
       <c r="E49" s="3">
-        <v>8272800</v>
+        <v>7975100</v>
       </c>
       <c r="F49" s="3">
-        <v>8243800</v>
+        <v>7916500</v>
       </c>
       <c r="G49" s="3">
-        <v>8092400</v>
+        <v>7869400</v>
       </c>
       <c r="H49" s="3">
-        <v>8150400</v>
+        <v>7841800</v>
       </c>
       <c r="I49" s="3">
+        <v>7697800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7753000</v>
+      </c>
+      <c r="K49" s="3">
         <v>8111500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>8188600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9136800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9146900</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2160,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2198,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>834900</v>
+        <v>1378300</v>
       </c>
       <c r="E52" s="3">
-        <v>792400</v>
+        <v>1159600</v>
       </c>
       <c r="F52" s="3">
-        <v>786700</v>
+        <v>794100</v>
       </c>
       <c r="G52" s="3">
-        <v>839800</v>
+        <v>753800</v>
       </c>
       <c r="H52" s="3">
-        <v>1098000</v>
+        <v>748400</v>
       </c>
       <c r="I52" s="3">
+        <v>798900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1044500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1069000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>974200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>992600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1013700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2274,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>622311300</v>
+        <v>610159300</v>
       </c>
       <c r="E54" s="3">
-        <v>616837400</v>
+        <v>599684700</v>
       </c>
       <c r="F54" s="3">
-        <v>602701600</v>
+        <v>591965400</v>
       </c>
       <c r="G54" s="3">
-        <v>594295000</v>
+        <v>586758400</v>
       </c>
       <c r="H54" s="3">
-        <v>593735400</v>
+        <v>573311900</v>
       </c>
       <c r="I54" s="3">
+        <v>565315300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>564782900</v>
+      </c>
+      <c r="K54" s="3">
         <v>588470200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>574600400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>577549300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>559323000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2332,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,8 +2348,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2157,72 +2382,90 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>3040100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3954900</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>2869600</v>
+        <v>2891900</v>
       </c>
       <c r="G58" s="3">
-        <v>3462500</v>
+        <v>3762100</v>
       </c>
       <c r="H58" s="3">
-        <v>3362000</v>
+        <v>2729700</v>
       </c>
       <c r="I58" s="3">
+        <v>3293700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3198100</v>
+      </c>
+      <c r="K58" s="3">
         <v>5074200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6527400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8803700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>13957600</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209400</v>
+        <v>109700</v>
       </c>
       <c r="E59" s="3">
-        <v>211500</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>217900</v>
+        <v>199200</v>
       </c>
       <c r="G59" s="3">
-        <v>101900</v>
+        <v>201200</v>
       </c>
       <c r="H59" s="3">
-        <v>272400</v>
+        <v>207300</v>
       </c>
       <c r="I59" s="3">
+        <v>96900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>259100</v>
+      </c>
+      <c r="K59" s="3">
         <v>166300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>381300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>251800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>480300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2253,72 +2496,90 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>134326700</v>
+        <v>136809500</v>
       </c>
       <c r="E61" s="3">
-        <v>136173200</v>
+        <v>138298100</v>
       </c>
       <c r="F61" s="3">
-        <v>131610600</v>
+        <v>127776500</v>
       </c>
       <c r="G61" s="3">
-        <v>130471500</v>
+        <v>129533000</v>
       </c>
       <c r="H61" s="3">
-        <v>131387700</v>
+        <v>125192800</v>
       </c>
       <c r="I61" s="3">
+        <v>124109300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>124980800</v>
+      </c>
+      <c r="K61" s="3">
         <v>125993000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>130812500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>130648600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>118351900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1376800</v>
+        <v>2162300</v>
       </c>
       <c r="E62" s="3">
-        <v>892900</v>
+        <v>1860200</v>
       </c>
       <c r="F62" s="3">
-        <v>1166700</v>
+        <v>1309700</v>
       </c>
       <c r="G62" s="3">
-        <v>851800</v>
+        <v>849300</v>
       </c>
       <c r="H62" s="3">
-        <v>1030100</v>
+        <v>1109800</v>
       </c>
       <c r="I62" s="3">
+        <v>810300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>979900</v>
+      </c>
+      <c r="K62" s="3">
         <v>880800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1092400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>995500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1213900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2610,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2648,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2686,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>576662700</v>
+        <v>566108800</v>
       </c>
       <c r="E66" s="3">
-        <v>572537300</v>
+        <v>556690800</v>
       </c>
       <c r="F66" s="3">
-        <v>559340300</v>
+        <v>548542800</v>
       </c>
       <c r="G66" s="3">
-        <v>552329700</v>
+        <v>544618500</v>
       </c>
       <c r="H66" s="3">
-        <v>552615500</v>
+        <v>532065100</v>
       </c>
       <c r="I66" s="3">
+        <v>525396300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>525668200</v>
+      </c>
+      <c r="K66" s="3">
         <v>548021700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>537033500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>541701000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>524163300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2744,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2778,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2816,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,8 +2854,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +2892,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20799800</v>
+        <v>19390500</v>
       </c>
       <c r="E72" s="3">
-        <v>20238000</v>
+        <v>19203400</v>
       </c>
       <c r="F72" s="3">
-        <v>19465400</v>
+        <v>19785500</v>
       </c>
       <c r="G72" s="3">
-        <v>18809600</v>
+        <v>19251200</v>
       </c>
       <c r="H72" s="3">
-        <v>18177800</v>
+        <v>18516200</v>
       </c>
       <c r="I72" s="3">
+        <v>17892400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>17291400</v>
+      </c>
+      <c r="K72" s="3">
         <v>17705900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>17243200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>16268000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15757100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2968,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +3006,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +3044,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45648600</v>
+        <v>44050500</v>
       </c>
       <c r="E76" s="3">
-        <v>44300100</v>
+        <v>42993900</v>
       </c>
       <c r="F76" s="3">
-        <v>43361300</v>
+        <v>43422600</v>
       </c>
       <c r="G76" s="3">
-        <v>41965400</v>
+        <v>42139900</v>
       </c>
       <c r="H76" s="3">
-        <v>41119900</v>
+        <v>41246800</v>
       </c>
       <c r="I76" s="3">
+        <v>39919000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>39114800</v>
+      </c>
+      <c r="K76" s="3">
         <v>40448500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>37566800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>35848300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35159700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +3120,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2755000</v>
+        <v>2427500</v>
       </c>
       <c r="E81" s="3">
-        <v>2968700</v>
+        <v>2134100</v>
       </c>
       <c r="F81" s="3">
-        <v>2885200</v>
+        <v>2620700</v>
       </c>
       <c r="G81" s="3">
-        <v>2763500</v>
+        <v>2823900</v>
       </c>
       <c r="H81" s="3">
-        <v>2646800</v>
+        <v>2744500</v>
       </c>
       <c r="I81" s="3">
+        <v>2628700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2517700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2617000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3112300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2617200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2853800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,40 +3221,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>420300</v>
+        <v>378900</v>
       </c>
       <c r="E83" s="3">
-        <v>389100</v>
+        <v>347300</v>
       </c>
       <c r="F83" s="3">
-        <v>456300</v>
+        <v>399800</v>
       </c>
       <c r="G83" s="3">
-        <v>441500</v>
+        <v>370200</v>
       </c>
       <c r="H83" s="3">
-        <v>442200</v>
+        <v>434100</v>
       </c>
       <c r="I83" s="3">
+        <v>420000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>420600</v>
+      </c>
+      <c r="K83" s="3">
         <v>412500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>796600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>395500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>403400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3293,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3331,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3369,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3407,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3445,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8567800</v>
+        <v>11035900</v>
       </c>
       <c r="E89" s="3">
-        <v>5442100</v>
+        <v>-6254900</v>
       </c>
       <c r="F89" s="3">
-        <v>2474800</v>
+        <v>8150000</v>
       </c>
       <c r="G89" s="3">
-        <v>-479700</v>
+        <v>5176700</v>
       </c>
       <c r="H89" s="3">
-        <v>346700</v>
+        <v>2365600</v>
       </c>
       <c r="I89" s="3">
+        <v>-456300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>329800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3542500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7055200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7628200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>10450100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,40 +3503,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-152100</v>
+        <v>-126500</v>
       </c>
       <c r="E91" s="3">
-        <v>-67200</v>
+        <v>-61900</v>
       </c>
       <c r="F91" s="3">
-        <v>-115300</v>
+        <v>-144700</v>
       </c>
       <c r="G91" s="3">
-        <v>-71500</v>
+        <v>-63900</v>
       </c>
       <c r="H91" s="3">
-        <v>-222200</v>
+        <v>-109700</v>
       </c>
       <c r="I91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-146500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-294300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-388900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-481800</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +3575,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +3613,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2041100</v>
+        <v>-2657000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3187300</v>
+        <v>-4590500</v>
       </c>
       <c r="F94" s="3">
-        <v>-633900</v>
+        <v>1941600</v>
       </c>
       <c r="G94" s="3">
-        <v>-567400</v>
+        <v>-3031900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3828300</v>
+        <v>-603000</v>
       </c>
       <c r="I94" s="3">
+        <v>-539700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3641600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1297600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-7985600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5389800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2257300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,40 +3671,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2046100</v>
+        <v>-1399800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2035500</v>
+        <v>-1949700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1432700</v>
+        <v>-1946300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1990900</v>
+        <v>-1936200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1990900</v>
+        <v>-1362800</v>
       </c>
       <c r="I96" s="3">
+        <v>-1893800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1893800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1831000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1308200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1807500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-2027300</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3743,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +3781,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +3819,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7658700</v>
+        <v>-8236200</v>
       </c>
       <c r="E100" s="3">
-        <v>-188900</v>
+        <v>5791200</v>
       </c>
       <c r="F100" s="3">
-        <v>54500</v>
+        <v>-7285200</v>
       </c>
       <c r="G100" s="3">
-        <v>336100</v>
+        <v>-179700</v>
       </c>
       <c r="H100" s="3">
-        <v>2099900</v>
+        <v>51800</v>
       </c>
       <c r="I100" s="3">
+        <v>319700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1997500</v>
+      </c>
+      <c r="K100" s="3">
         <v>1135500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>172600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3823200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1991000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>481800</v>
+        <v>243000</v>
       </c>
       <c r="E101" s="3">
-        <v>186100</v>
+        <v>140000</v>
       </c>
       <c r="F101" s="3">
-        <v>-137300</v>
+        <v>454900</v>
       </c>
       <c r="G101" s="3">
-        <v>-69300</v>
+        <v>180400</v>
       </c>
       <c r="H101" s="3">
-        <v>111100</v>
+        <v>-130600</v>
       </c>
       <c r="I101" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-521400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>780400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1197200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>608100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3432100</v>
+        <v>385600</v>
       </c>
       <c r="E102" s="3">
-        <v>2252000</v>
+        <v>-4914200</v>
       </c>
       <c r="F102" s="3">
-        <v>1758100</v>
+        <v>3264700</v>
       </c>
       <c r="G102" s="3">
-        <v>-780400</v>
+        <v>2142200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1270700</v>
+        <v>1677100</v>
       </c>
       <c r="I102" s="3">
+        <v>-742300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1208700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2859000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>22600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7997600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6809800</v>
       </c>
     </row>
